--- a/DAY - 6/T - Test/T-Test.xlsx
+++ b/DAY - 6/T - Test/T-Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R Programs For Practice\DAY - 6\T - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EE4171-96B6-4859-9C4B-36B1DCDD34C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE1DFE5-6C0C-4055-B844-23C111EAA536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
